--- a/biology/Botanique/Hibiscus_heterophyllus/Hibiscus_heterophyllus.xlsx
+++ b/biology/Botanique/Hibiscus_heterophyllus/Hibiscus_heterophyllus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibiscus heterophyllus est une espèce de plantes à fleurs de la famille des Malvaceae. Il est endémique à l'Australie, trouvé en Nouvelle-Galles du Sud et au Queensland.
 C'est un arbuste ou un petit arbre qui produit des fleurs qui sont de couleur blanche, rose pâle ou jaune et disposent d'un centre pourpre.
